--- a/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_11.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_11.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003991127014160156</v>
+        <v>0.0004799365997314453</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002470016479492188</v>
+        <v>0.0003671646118164062</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.322166442871094e-05</v>
+        <v>0.001670122146606445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (1, 1), (1, 0), (0, 2), (1, 2), (0, 3), (1, 3), (2, 2), (2, 1), (2, 3)]</t>
+          <t>[[0, 0], [0, 1], [1, 1], [1, 0], [0, 2], [1, 2], [0, 3], [1, 3], [2, 2], [2, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -607,110 +607,120 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007481098175048828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.00609898567199707</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
